--- a/Evaluation/eval003/sub1051/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub1051/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.900990099009901</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9009900990099011</v>
+        <v>0.9045226130653267</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.900990099009901</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9009900990099011</v>
+        <v>0.9073170731707317</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9062990580847724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9009900990099011</v>
+        <v>0.9059198431180292</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9062990580847723</v>
       </c>
       <c r="C6" t="n">
-        <v>0.900990099009901</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9009900990099011</v>
+        <v>0.9059198431180292</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
